--- a/Data/EC/NIT-8060073659.xlsx
+++ b/Data/EC/NIT-8060073659.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{402C3F35-1AC6-470C-9C54-5C22CFA786DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F20EF2F-4F0A-4F60-A557-3F80B21F1874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F19CFB23-E0A3-4F86-8409-0A778FBE198B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D908EB6-7F27-49A6-A6A6-D8B77BC453D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,40 +71,40 @@
     <t>KAREN PAOLA MADRID MEJIA</t>
   </si>
   <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
     <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9477F6D7-82A6-BFE6-6183-2E2944163B18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDB6910-AAC5-DB62-5FA9-A4CFE0ADC5B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7696142-9955-4430-ABF4-FA78D51A7785}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01642FA0-E36D-4A81-BC64-9A3866E6291F}">
   <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1047,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>38133</v>
+        <v>19067</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1300,7 +1300,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="24">
-        <v>19067</v>
+        <v>38133</v>
       </c>
       <c r="G27" s="24">
         <v>1300000</v>
